--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_16_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_16_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1325181.838582309</v>
+        <v>-1328074.122292388</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>69.56693840343071</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>69.56693840343071</v>
+        <v>13.70732065777799</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>49.6510137751944</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="T5" t="n">
-        <v>61.27455934574178</v>
+        <v>60.60711757448865</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>69.56693840343071</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.56693840343071</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>69.56693840343071</v>
+        <v>23.67665255215303</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>61.27455934574179</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>47.15831191777807</v>
       </c>
       <c r="S6" t="n">
-        <v>69.56693840343071</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.56693840343071</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>69.56693840343071</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>69.56693840343071</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>42.7627903004125</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>26.2361918182916</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>61.8425156304684</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>18.51176904532925</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>153.0339369588245</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.20174857006866</v>
+        <v>167.184774943595</v>
       </c>
       <c r="H8" t="n">
-        <v>167.1847749435941</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>129.4775132657337</v>
+        <v>129.4775132657335</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>17.89287112062271</v>
+        <v>17.89287112062246</v>
       </c>
       <c r="S8" t="n">
-        <v>161.1437840005449</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>167.184774943595</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>160.194694585846</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>167.1847749435941</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7.945359957795847</v>
+        <v>136.219388974348</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>50.69309652434578</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.36327870729383</v>
+        <v>30.3632787072937</v>
       </c>
       <c r="S9" t="n">
-        <v>150.8029830343935</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>167.184774943595</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>116.9050698868822</v>
       </c>
     </row>
     <row r="10">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.72928638449062</v>
+        <v>26.72928638449049</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.246272238819259</v>
+        <v>7.246272238819103</v>
       </c>
       <c r="R10" t="n">
-        <v>134.9182525833707</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>167.1847749435941</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>167.1847749435941</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>145.5473135072311</v>
+        <v>167.184774943595</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>167.184774943595</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>135.0445180676725</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>151.1520210031456</v>
+        <v>113.909633673267</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>98.17502158542678</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>87.56552151234031</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>366.8314153229334</v>
+        <v>410.5779902428685</v>
       </c>
       <c r="H14" t="n">
         <v>291.0874841136667</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.3548911194698</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.4132683797843</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9676731260552</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>148.1971909357911</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.8155545071106</v>
       </c>
       <c r="H15" t="n">
-        <v>87.82064700521477</v>
+        <v>87.82064700521478</v>
       </c>
       <c r="I15" t="n">
-        <v>12.48506925269697</v>
+        <v>12.48506925269702</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.8716203873539</v>
       </c>
       <c r="H16" t="n">
-        <v>143.3841445643438</v>
+        <v>119.6173565196232</v>
       </c>
       <c r="I16" t="n">
-        <v>91.71557059621452</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>81.99930527640099</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>187.0819512405361</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.8901465517426</v>
       </c>
       <c r="U16" t="n">
-        <v>286.203427958067</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>12.15731696499963</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1859,7 +1859,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -2005,22 +2005,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
         <v>186.4872700401421</v>
@@ -2065,10 +2065,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295047</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
       </c>
       <c r="W20" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X20" t="n">
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659969</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
         <v>254.5831063612652</v>
@@ -2305,7 +2305,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C23" t="n">
         <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
@@ -2333,7 +2333,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
         <v>219.3243840645688</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
         <v>135.6366187464139</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
@@ -2767,13 +2767,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
         <v>194.0994530368232</v>
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2801,13 +2801,13 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295169</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y29" t="n">
         <v>354.6277363038396</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297247</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510305</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453003</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221577</v>
+        <v>42.0474723022157</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y31" t="n">
         <v>186.9744509998808</v>
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3038,10 +3038,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247501</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
         <v>255.2416659947559</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
         <v>117.0052706659984</v>
@@ -3196,16 +3196,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453173</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,16 +3241,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998808</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139452959</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
         <v>254.5831063612652</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3518,7 +3518,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038374</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3664,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
         <v>254.5831063612652</v>
@@ -3724,10 +3724,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D41" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295168</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453002</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221567</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4195,7 +4195,7 @@
         <v>220.5274409716141</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843776</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
         <v>194.0994530368232</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>146.1046245741547</v>
+        <v>96.62626901461805</v>
       </c>
       <c r="C5" t="n">
-        <v>146.1046245741547</v>
+        <v>26.35663426367792</v>
       </c>
       <c r="D5" t="n">
-        <v>146.1046245741547</v>
+        <v>26.35663426367792</v>
       </c>
       <c r="E5" t="n">
-        <v>146.1046245741547</v>
+        <v>26.35663426367792</v>
       </c>
       <c r="F5" t="n">
-        <v>75.83498982321457</v>
+        <v>19.41113351447445</v>
       </c>
       <c r="G5" t="n">
-        <v>5.565355072274457</v>
+        <v>5.565355072274458</v>
       </c>
       <c r="H5" t="n">
-        <v>5.565355072274457</v>
+        <v>5.565355072274458</v>
       </c>
       <c r="I5" t="n">
-        <v>5.565355072274457</v>
+        <v>5.565355072274458</v>
       </c>
       <c r="J5" t="n">
-        <v>74.43662409167086</v>
+        <v>74.43662409167088</v>
       </c>
       <c r="K5" t="n">
-        <v>120.0953811639231</v>
+        <v>74.43662409167088</v>
       </c>
       <c r="L5" t="n">
-        <v>135.9376886038359</v>
+        <v>135.937688603836</v>
       </c>
       <c r="M5" t="n">
         <v>185.2347455606894</v>
       </c>
       <c r="N5" t="n">
-        <v>239.9432888164239</v>
+        <v>239.943288816424</v>
       </c>
       <c r="O5" t="n">
-        <v>278.2677536137228</v>
+        <v>278.2677536137229</v>
       </c>
       <c r="P5" t="n">
-        <v>278.2677536137228</v>
+        <v>278.2677536137229</v>
       </c>
       <c r="Q5" t="n">
-        <v>278.2677536137228</v>
+        <v>278.2677536137229</v>
       </c>
       <c r="R5" t="n">
-        <v>278.2677536137228</v>
+        <v>228.1152144468599</v>
       </c>
       <c r="S5" t="n">
-        <v>278.2677536137228</v>
+        <v>157.8455796959197</v>
       </c>
       <c r="T5" t="n">
-        <v>216.3742593250948</v>
+        <v>96.62626901461805</v>
       </c>
       <c r="U5" t="n">
-        <v>216.3742593250948</v>
+        <v>96.62626901461805</v>
       </c>
       <c r="V5" t="n">
-        <v>216.3742593250948</v>
+        <v>96.62626901461805</v>
       </c>
       <c r="W5" t="n">
-        <v>146.1046245741547</v>
+        <v>96.62626901461805</v>
       </c>
       <c r="X5" t="n">
-        <v>146.1046245741547</v>
+        <v>96.62626901461805</v>
       </c>
       <c r="Y5" t="n">
-        <v>146.1046245741547</v>
+        <v>96.62626901461805</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137.7284841118426</v>
+        <v>230.6330951109168</v>
       </c>
       <c r="C6" t="n">
-        <v>137.7284841118426</v>
+        <v>230.6330951109168</v>
       </c>
       <c r="D6" t="n">
-        <v>67.45884936090253</v>
+        <v>206.7172844521763</v>
       </c>
       <c r="E6" t="n">
-        <v>67.45884936090253</v>
+        <v>206.7172844521763</v>
       </c>
       <c r="F6" t="n">
-        <v>5.565355072274457</v>
+        <v>136.4476497012362</v>
       </c>
       <c r="G6" t="n">
-        <v>5.565355072274457</v>
+        <v>66.17801495029607</v>
       </c>
       <c r="H6" t="n">
-        <v>5.565355072274457</v>
+        <v>66.17801495029607</v>
       </c>
       <c r="I6" t="n">
-        <v>5.565355072274457</v>
+        <v>5.565355072274458</v>
       </c>
       <c r="J6" t="n">
-        <v>5.565355072274457</v>
+        <v>5.565355072274458</v>
       </c>
       <c r="K6" t="n">
-        <v>5.565355072274459</v>
+        <v>5.565355072274463</v>
       </c>
       <c r="L6" t="n">
         <v>51.88789622742866</v>
@@ -4662,34 +4662,34 @@
         <v>249.5278572568952</v>
       </c>
       <c r="P6" t="n">
-        <v>278.2677536137228</v>
+        <v>278.2677536137229</v>
       </c>
       <c r="Q6" t="n">
-        <v>278.2677536137228</v>
+        <v>278.2677536137229</v>
       </c>
       <c r="R6" t="n">
-        <v>278.2677536137228</v>
+        <v>230.6330951109168</v>
       </c>
       <c r="S6" t="n">
-        <v>207.9981188627827</v>
+        <v>230.6330951109168</v>
       </c>
       <c r="T6" t="n">
-        <v>207.9981188627827</v>
+        <v>230.6330951109168</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9981188627827</v>
+        <v>230.6330951109168</v>
       </c>
       <c r="V6" t="n">
-        <v>207.9981188627827</v>
+        <v>230.6330951109168</v>
       </c>
       <c r="W6" t="n">
-        <v>207.9981188627827</v>
+        <v>230.6330951109168</v>
       </c>
       <c r="X6" t="n">
-        <v>207.9981188627827</v>
+        <v>230.6330951109168</v>
       </c>
       <c r="Y6" t="n">
-        <v>207.9981188627827</v>
+        <v>230.6330951109168</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.299362251339</v>
+        <v>119.0297275003989</v>
       </c>
       <c r="C7" t="n">
-        <v>189.299362251339</v>
+        <v>119.0297275003989</v>
       </c>
       <c r="D7" t="n">
-        <v>189.299362251339</v>
+        <v>119.0297275003989</v>
       </c>
       <c r="E7" t="n">
-        <v>189.299362251339</v>
+        <v>119.0297275003989</v>
       </c>
       <c r="F7" t="n">
         <v>119.0297275003989</v>
       </c>
       <c r="G7" t="n">
-        <v>119.0297275003989</v>
+        <v>48.76009274945881</v>
       </c>
       <c r="H7" t="n">
-        <v>119.0297275003989</v>
+        <v>48.76009274945881</v>
       </c>
       <c r="I7" t="n">
         <v>48.76009274945881</v>
       </c>
       <c r="J7" t="n">
-        <v>5.565355072274457</v>
+        <v>5.565355072274458</v>
       </c>
       <c r="K7" t="n">
-        <v>5.565355072274457</v>
+        <v>65.83251511891147</v>
       </c>
       <c r="L7" t="n">
-        <v>74.43662409167086</v>
+        <v>65.83251511891147</v>
       </c>
       <c r="M7" t="n">
-        <v>143.3078931110673</v>
+        <v>134.7037841383079</v>
       </c>
       <c r="N7" t="n">
-        <v>209.3964845943264</v>
+        <v>203.5750531577043</v>
       </c>
       <c r="O7" t="n">
-        <v>209.3964845943264</v>
+        <v>272.4463221771007</v>
       </c>
       <c r="P7" t="n">
-        <v>278.2677536137228</v>
+        <v>278.2677536137229</v>
       </c>
       <c r="Q7" t="n">
-        <v>278.2677536137228</v>
+        <v>251.7665497568627</v>
       </c>
       <c r="R7" t="n">
-        <v>278.2677536137228</v>
+        <v>189.2993622513391</v>
       </c>
       <c r="S7" t="n">
-        <v>278.2677536137228</v>
+        <v>189.2993622513391</v>
       </c>
       <c r="T7" t="n">
-        <v>278.2677536137228</v>
+        <v>189.2993622513391</v>
       </c>
       <c r="U7" t="n">
-        <v>259.5689970022792</v>
+        <v>119.0297275003989</v>
       </c>
       <c r="V7" t="n">
-        <v>259.5689970022792</v>
+        <v>119.0297275003989</v>
       </c>
       <c r="W7" t="n">
-        <v>259.5689970022792</v>
+        <v>119.0297275003989</v>
       </c>
       <c r="X7" t="n">
-        <v>259.5689970022792</v>
+        <v>119.0297275003989</v>
       </c>
       <c r="Y7" t="n">
-        <v>259.5689970022792</v>
+        <v>119.0297275003989</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>487.8939935913788</v>
+        <v>319.9791597238108</v>
       </c>
       <c r="C8" t="n">
-        <v>487.8939935913788</v>
+        <v>319.9791597238108</v>
       </c>
       <c r="D8" t="n">
-        <v>487.8939935913788</v>
+        <v>319.9791597238108</v>
       </c>
       <c r="E8" t="n">
-        <v>333.3142592895359</v>
+        <v>319.9791597238108</v>
       </c>
       <c r="F8" t="n">
-        <v>326.3687585403325</v>
+        <v>313.0336589746074</v>
       </c>
       <c r="G8" t="n">
-        <v>313.0336589746066</v>
+        <v>144.160148930572</v>
       </c>
       <c r="H8" t="n">
-        <v>144.1601489305721</v>
+        <v>144.160148930572</v>
       </c>
       <c r="I8" t="n">
-        <v>13.37478199548753</v>
+        <v>13.3747819954876</v>
       </c>
       <c r="J8" t="n">
-        <v>48.64862173995252</v>
+        <v>13.3747819954876</v>
       </c>
       <c r="K8" t="n">
-        <v>95.34080500120136</v>
+        <v>60.06696525673695</v>
       </c>
       <c r="L8" t="n">
-        <v>190.1683489999935</v>
+        <v>190.1683489999938</v>
       </c>
       <c r="M8" t="n">
-        <v>327.3517004543792</v>
+        <v>327.3517004543803</v>
       </c>
       <c r="N8" t="n">
-        <v>471.3686303349082</v>
+        <v>471.36863033491</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0244721343133</v>
+        <v>594.0244721343158</v>
       </c>
       <c r="P8" t="n">
-        <v>664.2073945079582</v>
+        <v>664.2073945079612</v>
       </c>
       <c r="Q8" t="n">
-        <v>668.7390997743764</v>
+        <v>668.73909977438</v>
       </c>
       <c r="R8" t="n">
-        <v>650.6654925818282</v>
+        <v>650.665492581832</v>
       </c>
       <c r="S8" t="n">
-        <v>487.8939935913788</v>
+        <v>650.665492581832</v>
       </c>
       <c r="T8" t="n">
-        <v>487.8939935913788</v>
+        <v>650.665492581832</v>
       </c>
       <c r="U8" t="n">
-        <v>487.8939935913788</v>
+        <v>481.7919825377967</v>
       </c>
       <c r="V8" t="n">
-        <v>487.8939935913788</v>
+        <v>319.9791597238108</v>
       </c>
       <c r="W8" t="n">
-        <v>487.8939935913788</v>
+        <v>319.9791597238108</v>
       </c>
       <c r="X8" t="n">
-        <v>487.8939935913788</v>
+        <v>319.9791597238108</v>
       </c>
       <c r="Y8" t="n">
-        <v>487.8939935913788</v>
+        <v>319.9791597238108</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>485.742875792874</v>
+        <v>351.1096820594599</v>
       </c>
       <c r="C9" t="n">
-        <v>316.8693657488395</v>
+        <v>351.1096820594599</v>
       </c>
       <c r="D9" t="n">
-        <v>167.9349560875883</v>
+        <v>202.1752723982086</v>
       </c>
       <c r="E9" t="n">
-        <v>167.9349560875883</v>
+        <v>202.1752723982086</v>
       </c>
       <c r="F9" t="n">
-        <v>21.40039811447323</v>
+        <v>202.1752723982086</v>
       </c>
       <c r="G9" t="n">
-        <v>13.37478199548753</v>
+        <v>64.57992999987728</v>
       </c>
       <c r="H9" t="n">
-        <v>13.37478199548753</v>
+        <v>64.57992999987728</v>
       </c>
       <c r="I9" t="n">
-        <v>13.37478199548753</v>
+        <v>13.3747819954876</v>
       </c>
       <c r="J9" t="n">
-        <v>13.37478199548753</v>
+        <v>13.3747819954876</v>
       </c>
       <c r="K9" t="n">
-        <v>56.61858747254985</v>
+        <v>56.61858747255042</v>
       </c>
       <c r="L9" t="n">
-        <v>161.0877617086713</v>
+        <v>161.0877617086723</v>
       </c>
       <c r="M9" t="n">
-        <v>302.3552287218782</v>
+        <v>302.3552287218798</v>
       </c>
       <c r="N9" t="n">
-        <v>461.7702701482048</v>
+        <v>461.770270148207</v>
       </c>
       <c r="O9" t="n">
-        <v>585.3840935982912</v>
+        <v>585.3840935982939</v>
       </c>
       <c r="P9" t="n">
-        <v>665.262018660889</v>
+        <v>665.2620186608923</v>
       </c>
       <c r="Q9" t="n">
-        <v>668.7390997743764</v>
+        <v>668.73909977438</v>
       </c>
       <c r="R9" t="n">
-        <v>638.0691212821604</v>
+        <v>638.0691212821641</v>
       </c>
       <c r="S9" t="n">
-        <v>485.742875792874</v>
+        <v>638.0691212821641</v>
       </c>
       <c r="T9" t="n">
-        <v>485.742875792874</v>
+        <v>638.0691212821641</v>
       </c>
       <c r="U9" t="n">
-        <v>485.742875792874</v>
+        <v>638.0691212821641</v>
       </c>
       <c r="V9" t="n">
-        <v>485.742875792874</v>
+        <v>638.0691212821641</v>
       </c>
       <c r="W9" t="n">
-        <v>485.742875792874</v>
+        <v>638.0691212821641</v>
       </c>
       <c r="X9" t="n">
-        <v>485.742875792874</v>
+        <v>469.1956112381288</v>
       </c>
       <c r="Y9" t="n">
-        <v>485.742875792874</v>
+        <v>351.1096820594599</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.37406117174068</v>
+        <v>187.264008669651</v>
       </c>
       <c r="C10" t="n">
-        <v>40.37406117174068</v>
+        <v>187.264008669651</v>
       </c>
       <c r="D10" t="n">
-        <v>40.37406117174068</v>
+        <v>187.264008669651</v>
       </c>
       <c r="E10" t="n">
-        <v>40.37406117174068</v>
+        <v>187.264008669651</v>
       </c>
       <c r="F10" t="n">
-        <v>40.37406117174068</v>
+        <v>40.37406117174062</v>
       </c>
       <c r="G10" t="n">
-        <v>40.37406117174068</v>
+        <v>40.37406117174062</v>
       </c>
       <c r="H10" t="n">
-        <v>40.37406117174068</v>
+        <v>40.37406117174062</v>
       </c>
       <c r="I10" t="n">
-        <v>40.37406117174068</v>
+        <v>40.37406117174062</v>
       </c>
       <c r="J10" t="n">
-        <v>13.37478199548753</v>
+        <v>13.3747819954876</v>
       </c>
       <c r="K10" t="n">
-        <v>13.37478199548753</v>
+        <v>99.72643455145062</v>
       </c>
       <c r="L10" t="n">
-        <v>178.8877091896457</v>
+        <v>265.2393617456096</v>
       </c>
       <c r="M10" t="n">
-        <v>236.8618684449517</v>
+        <v>273.9559235952765</v>
       </c>
       <c r="N10" t="n">
-        <v>402.3747956391098</v>
+        <v>402.3747956391129</v>
       </c>
       <c r="O10" t="n">
-        <v>558.5903705729019</v>
+        <v>558.5903705729052</v>
       </c>
       <c r="P10" t="n">
-        <v>668.7390997743764</v>
+        <v>668.73909977438</v>
       </c>
       <c r="Q10" t="n">
-        <v>661.4196328664782</v>
+        <v>661.4196328664818</v>
       </c>
       <c r="R10" t="n">
-        <v>525.1385696509521</v>
+        <v>661.4196328664818</v>
       </c>
       <c r="S10" t="n">
-        <v>356.2650596069177</v>
+        <v>661.4196328664818</v>
       </c>
       <c r="T10" t="n">
-        <v>187.3915495628832</v>
+        <v>661.4196328664818</v>
       </c>
       <c r="U10" t="n">
-        <v>40.37406117174068</v>
+        <v>492.5461228224465</v>
       </c>
       <c r="V10" t="n">
-        <v>40.37406117174068</v>
+        <v>323.6726127784111</v>
       </c>
       <c r="W10" t="n">
-        <v>40.37406117174068</v>
+        <v>323.6726127784111</v>
       </c>
       <c r="X10" t="n">
-        <v>40.37406117174068</v>
+        <v>323.6726127784111</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.37406117174068</v>
+        <v>187.264008669651</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1232.150970528558</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C11" t="n">
-        <v>1232.150970528558</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1232.150970528558</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
@@ -5045,10 +5045,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W11" t="n">
-        <v>2382.355900829572</v>
+        <v>2769.192029759092</v>
       </c>
       <c r="X11" t="n">
-        <v>2008.890142568492</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y11" t="n">
-        <v>1618.75081059268</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>825.3518203322454</v>
+        <v>462.6853918125572</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3518203322454</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2351809199098</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3220873375167</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396062</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5197,7 +5197,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
         <v>315.6219318279954</v>
@@ -5212,37 +5212,37 @@
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U13" t="n">
-        <v>1335.561569512736</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1335.561569512736</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1046.144399475776</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X13" t="n">
-        <v>1046.144399475776</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y13" t="n">
-        <v>825.3518203322454</v>
+        <v>644.3338566427969</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2263.461504258531</v>
+        <v>1921.861711175372</v>
       </c>
       <c r="C14" t="n">
-        <v>1894.498987318119</v>
+        <v>1552.899194234961</v>
       </c>
       <c r="D14" t="n">
-        <v>1536.233288711369</v>
+        <v>1194.63349562821</v>
       </c>
       <c r="E14" t="n">
-        <v>1150.445036113125</v>
+        <v>1194.63349562821</v>
       </c>
       <c r="F14" t="n">
-        <v>739.4591313235171</v>
+        <v>783.6475908386028</v>
       </c>
       <c r="G14" t="n">
         <v>368.9223481690387</v>
       </c>
       <c r="H14" t="n">
-        <v>74.8945864380623</v>
+        <v>74.89458643806223</v>
       </c>
       <c r="I14" t="n">
-        <v>74.8945864380623</v>
+        <v>74.89458643806223</v>
       </c>
       <c r="J14" t="n">
-        <v>292.6560895681869</v>
+        <v>292.656089568186</v>
       </c>
       <c r="K14" t="n">
-        <v>669.762652159895</v>
+        <v>669.7626521598941</v>
       </c>
       <c r="L14" t="n">
-        <v>1174.49845095614</v>
+        <v>1174.498450956139</v>
       </c>
       <c r="M14" t="n">
-        <v>1767.783716737811</v>
+        <v>1767.78371673781</v>
       </c>
       <c r="N14" t="n">
-        <v>2375.282766759312</v>
+        <v>2375.282766759311</v>
       </c>
       <c r="O14" t="n">
-        <v>2935.591631802253</v>
+        <v>2935.591631802251</v>
       </c>
       <c r="P14" t="n">
-        <v>3379.301284053705</v>
+        <v>3379.301284053704</v>
       </c>
       <c r="Q14" t="n">
-        <v>3664.336007556003</v>
+        <v>3664.336007556</v>
       </c>
       <c r="R14" t="n">
-        <v>3744.729321903115</v>
+        <v>3744.729321903112</v>
       </c>
       <c r="S14" t="n">
-        <v>3744.729321903115</v>
+        <v>3642.350644004657</v>
       </c>
       <c r="T14" t="n">
-        <v>3744.729321903115</v>
+        <v>3437.89279715639</v>
       </c>
       <c r="U14" t="n">
-        <v>3744.729321903115</v>
+        <v>3184.390097029062</v>
       </c>
       <c r="V14" t="n">
-        <v>3413.666434559544</v>
+        <v>3034.695964770687</v>
       </c>
       <c r="W14" t="n">
-        <v>3413.666434559544</v>
+        <v>2681.927309500573</v>
       </c>
       <c r="X14" t="n">
-        <v>3040.200676298464</v>
+        <v>2308.461551239494</v>
       </c>
       <c r="Y14" t="n">
-        <v>2650.061344322653</v>
+        <v>2308.461551239494</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>176.2134917490843</v>
       </c>
       <c r="H15" t="n">
-        <v>87.50576750139258</v>
+        <v>87.50576750139255</v>
       </c>
       <c r="I15" t="n">
-        <v>74.8945864380623</v>
+        <v>74.89458643806223</v>
       </c>
       <c r="J15" t="n">
-        <v>74.8945864380623</v>
+        <v>185.7739989297281</v>
       </c>
       <c r="K15" t="n">
-        <v>340.6345845171221</v>
+        <v>453.4394002158922</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8662896636815</v>
+        <v>859.6711053624514</v>
       </c>
       <c r="M15" t="n">
-        <v>1240.276397030307</v>
+        <v>1353.081212729077</v>
       </c>
       <c r="N15" t="n">
         <v>1761.154246667078</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1093.772000917106</v>
+        <v>829.2100602226568</v>
       </c>
       <c r="C16" t="n">
-        <v>924.8358179891989</v>
+        <v>660.2738772947499</v>
       </c>
       <c r="D16" t="n">
-        <v>774.7191785768631</v>
+        <v>510.1572378824142</v>
       </c>
       <c r="E16" t="n">
-        <v>626.80608499447</v>
+        <v>510.1572378824142</v>
       </c>
       <c r="F16" t="n">
-        <v>479.9161374965596</v>
+        <v>363.2672903845038</v>
       </c>
       <c r="G16" t="n">
-        <v>312.369046196202</v>
+        <v>195.7201990841463</v>
       </c>
       <c r="H16" t="n">
-        <v>167.5365769392891</v>
+        <v>74.89458643806225</v>
       </c>
       <c r="I16" t="n">
-        <v>74.89458643806229</v>
+        <v>74.89458643806225</v>
       </c>
       <c r="J16" t="n">
-        <v>130.8092905870973</v>
+        <v>130.8092905870972</v>
       </c>
       <c r="K16" t="n">
-        <v>352.5311625359524</v>
+        <v>352.5311625359518</v>
       </c>
       <c r="L16" t="n">
-        <v>691.7852570647025</v>
+        <v>691.7852570647018</v>
       </c>
       <c r="M16" t="n">
-        <v>1059.870255905772</v>
+        <v>1059.870255905771</v>
       </c>
       <c r="N16" t="n">
-        <v>1424.637632606678</v>
+        <v>1424.637632606677</v>
       </c>
       <c r="O16" t="n">
-        <v>1745.54304878622</v>
+        <v>1745.543048786219</v>
       </c>
       <c r="P16" t="n">
         <v>1996.612388222673</v>
       </c>
       <c r="Q16" t="n">
-        <v>2087.004704749116</v>
+        <v>2087.004704749115</v>
       </c>
       <c r="R16" t="n">
-        <v>2087.004704749116</v>
+        <v>2004.177123661842</v>
       </c>
       <c r="S16" t="n">
-        <v>2087.004704749116</v>
+        <v>1815.205455742108</v>
       </c>
       <c r="T16" t="n">
-        <v>2087.004704749116</v>
+        <v>1594.104297609035</v>
       </c>
       <c r="U16" t="n">
-        <v>1797.910333074301</v>
+        <v>1594.104297609035</v>
       </c>
       <c r="V16" t="n">
-        <v>1785.630214927837</v>
+        <v>1339.419809403148</v>
       </c>
       <c r="W16" t="n">
-        <v>1496.213044890876</v>
+        <v>1050.002639366187</v>
       </c>
       <c r="X16" t="n">
-        <v>1496.213044890876</v>
+        <v>1050.002639366187</v>
       </c>
       <c r="Y16" t="n">
-        <v>1275.420465747346</v>
+        <v>829.2100602226568</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511622</v>
@@ -5516,7 +5516,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5525,16 +5525,16 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
         <v>4249.020448755811</v>
@@ -5555,10 +5555,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1665.552851106135</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
         <v>2555.644190323788</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C19" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F19" t="n">
         <v>386.7245456315385</v>
@@ -5665,19 +5665,19 @@
         <v>251.2943450749443</v>
       </c>
       <c r="H19" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5692,7 +5692,7 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R19" t="n">
         <v>2487.049233352542</v>
@@ -5701,19 +5701,19 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
         <v>1022.581387254981</v>
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
         <v>1458.093420216582</v>
@@ -5738,43 +5738,43 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S20" t="n">
         <v>4188.091007924547</v>
@@ -5792,10 +5792,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>301.7509472448922</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>850.6694118551811</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502087</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477704</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315382</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042784</v>
@@ -5923,7 +5923,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
         <v>2392.455631028688</v>
@@ -5935,7 +5935,7 @@
         <v>2487.049233352542</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T22" t="n">
         <v>2144.901839127668</v>
@@ -5953,7 +5953,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162835</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511584</v>
       </c>
       <c r="I23" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233288</v>
@@ -6078,7 +6078,7 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
         <v>2555.644190323788</v>
@@ -6130,10 +6130,10 @@
         <v>617.6685920609048</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G25" t="n">
         <v>251.2943450749444</v>
@@ -6148,43 +6148,43 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902786</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
         <v>1211.444469073043</v>
@@ -6218,16 +6218,16 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076833</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6248,10 +6248,10 @@
         <v>4142.907144767227</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
         <v>4017.391409283564</v>
@@ -6297,34 +6297,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H28" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511623</v>
       </c>
       <c r="J28" t="n">
         <v>185.1742787042785</v>
@@ -6388,7 +6388,7 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6400,7 +6400,7 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
         <v>2529.521427597205</v>
@@ -6415,7 +6415,7 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
         <v>1664.992195357083</v>
@@ -6452,52 +6452,52 @@
         <v>725.1782574796666</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076824</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951436</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437413</v>
@@ -6506,7 +6506,7 @@
         <v>2834.342818501802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502118</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477735</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609066</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039822</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315406</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S31" t="n">
         <v>2333.272818966197</v>
@@ -6664,7 +6664,7 @@
         <v>1211.444469073044</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="32">
@@ -6683,34 +6683,34 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I32" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233288</v>
@@ -6777,28 +6777,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502111</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477729</v>
+        <v>735.8557341477725</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609059</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039815</v>
+        <v>501.684995803981</v>
       </c>
       <c r="F34" t="n">
-        <v>386.72454563154</v>
+        <v>386.7245456315393</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749454</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897948</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511622</v>
@@ -6859,16 +6859,16 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
         <v>2087.878830313936</v>
@@ -6880,13 +6880,13 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
         <v>1887.747186237502</v>
@@ -6926,37 +6926,37 @@
         <v>725.1782574796673</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I35" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
         <v>4249.020448755811</v>
@@ -7014,28 +7014,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7117,25 +7117,25 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T37" t="n">
         <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7160,25 +7160,25 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076837</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K38" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746738</v>
@@ -7187,34 +7187,34 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
         <v>2476.13298385146</v>
@@ -7245,34 +7245,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511619</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D40" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7354,10 +7354,10 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
         <v>2144.901839127669</v>
@@ -7372,10 +7372,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E41" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J41" t="n">
         <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W41" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477714</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F43" t="n">
         <v>386.7245456315381</v>
       </c>
       <c r="G43" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897928</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902756</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.55207904089</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.71920135497</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313933</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028686</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X43" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511622</v>
+        <v>165.6257438946549</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511622</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448914</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551806</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609045</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
@@ -7804,13 +7804,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7825,28 +7825,28 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -8216,10 +8216,10 @@
         <v>115.2038314330084</v>
       </c>
       <c r="K5" t="n">
-        <v>63.26680061458633</v>
+        <v>17.14684397594772</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>46.11995663863866</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>45.86784710562524</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>98.05411448470491</v>
+        <v>28.4871760812742</v>
       </c>
       <c r="M7" t="n">
-        <v>96.31147642050011</v>
+        <v>96.31147642050013</v>
       </c>
       <c r="N7" t="n">
-        <v>84.92787083890535</v>
+        <v>87.73865622894297</v>
       </c>
       <c r="O7" t="n">
-        <v>37.30279422357803</v>
+        <v>106.8697326270088</v>
       </c>
       <c r="P7" t="n">
-        <v>120.7404394159927</v>
+        <v>57.05373478692781</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>38.35723520638253</v>
+        <v>2.727094050356953</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>35.63014115602431</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>20.6321647531128</v>
+        <v>20.63216475311259</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8611,16 +8611,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>19.51987487398301</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>161.9556178577105</v>
+        <v>161.9556178577111</v>
       </c>
       <c r="M10" t="n">
-        <v>49.75514889458523</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>150.6526260574292</v>
+        <v>113.1838834813463</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-1.165290086646564e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>198.0889477142674</v>
+        <v>235.331335044146</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>69.07179951320106</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>198.6463166932726</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>43.74657491993506</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.32507035634714</v>
+        <v>28.3250703563472</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.3548911194698</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4132683797843</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9676731260552</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>179.5550675343438</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>23.7667880447206</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>91.71557059621453</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>81.99930527640095</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>187.0819512405361</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.8901465517426</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.203427958067</v>
       </c>
       <c r="V16" t="n">
-        <v>239.9803263588284</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.499245172453811e-12</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26323,7 +26323,7 @@
         <v>153448.6945369143</v>
       </c>
       <c r="F2" t="n">
-        <v>162103.5990625081</v>
+        <v>162103.599062508</v>
       </c>
       <c r="G2" t="n">
         <v>184734.3982194639</v>
@@ -26344,16 +26344,16 @@
         <v>184734.3982194638</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="O2" t="n">
+        <v>184734.3982194636</v>
+      </c>
+      <c r="P2" t="n">
         <v>184734.3982194638</v>
-      </c>
-      <c r="P2" t="n">
-        <v>184734.3982194639</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>113706.0692285641</v>
       </c>
       <c r="D3" t="n">
-        <v>138026.5582779427</v>
+        <v>138026.5582779438</v>
       </c>
       <c r="E3" t="n">
-        <v>653975.0792732522</v>
+        <v>653975.0792732511</v>
       </c>
       <c r="F3" t="n">
-        <v>97608.79924549893</v>
+        <v>97608.79924549832</v>
       </c>
       <c r="G3" t="n">
-        <v>139829.8949463562</v>
+        <v>139829.8949463567</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.263256414560601e-11</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>17904.30380301415</v>
+        <v>17904.30380301412</v>
       </c>
       <c r="L3" t="n">
-        <v>49994.3577495577</v>
+        <v>49994.35774955792</v>
       </c>
       <c r="M3" t="n">
-        <v>165525.4536370295</v>
+        <v>165525.4536370293</v>
       </c>
       <c r="N3" t="n">
-        <v>25663.66538912357</v>
+        <v>25663.6653891235</v>
       </c>
       <c r="O3" t="n">
-        <v>30339.54099205725</v>
+        <v>30339.54099205723</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>323993.5386691355</v>
       </c>
       <c r="D4" t="n">
-        <v>282453.1049737603</v>
+        <v>282453.10497376</v>
       </c>
       <c r="E4" t="n">
         <v>10380.34706710378</v>
@@ -26430,34 +26430,34 @@
         <v>10434.56981114338</v>
       </c>
       <c r="G4" t="n">
-        <v>41569.70708102229</v>
+        <v>41569.70708102234</v>
       </c>
       <c r="H4" t="n">
-        <v>41569.70708102234</v>
+        <v>41569.70708102231</v>
       </c>
       <c r="I4" t="n">
         <v>41569.70708102232</v>
       </c>
       <c r="J4" t="n">
-        <v>41569.70708102236</v>
+        <v>41569.70708102235</v>
       </c>
       <c r="K4" t="n">
-        <v>41569.70708102236</v>
+        <v>41569.70708102238</v>
       </c>
       <c r="L4" t="n">
+        <v>41569.70708102235</v>
+      </c>
+      <c r="M4" t="n">
+        <v>41569.70708102233</v>
+      </c>
+      <c r="N4" t="n">
+        <v>41569.70708102233</v>
+      </c>
+      <c r="O4" t="n">
         <v>41569.70708102237</v>
       </c>
-      <c r="M4" t="n">
-        <v>41569.70708102237</v>
-      </c>
-      <c r="N4" t="n">
-        <v>41569.7070810224</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>41569.70708102234</v>
-      </c>
-      <c r="P4" t="n">
-        <v>41569.70708102235</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>46508.81661816157</v>
       </c>
       <c r="D5" t="n">
-        <v>55185.57211842931</v>
+        <v>55185.57211842939</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82541.00896361114</v>
+        <v>82541.00896361108</v>
       </c>
       <c r="G5" t="n">
         <v>95106.43410215527</v>
@@ -26500,13 +26500,13 @@
         <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215528</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-497291.0381625665</v>
+        <v>-497295.2144025615</v>
       </c>
       <c r="C6" t="n">
         <v>-299474.0262963974</v>
       </c>
       <c r="D6" t="n">
-        <v>-290930.8371506686</v>
+        <v>-290930.8371506696</v>
       </c>
       <c r="E6" t="n">
-        <v>-585213.0723648351</v>
+        <v>-585560.69129464</v>
       </c>
       <c r="F6" t="n">
-        <v>-28480.77895774529</v>
+        <v>-28732.23228171095</v>
       </c>
       <c r="G6" t="n">
-        <v>-91771.63791006996</v>
+        <v>-91771.63791007039</v>
       </c>
       <c r="H6" t="n">
-        <v>48058.25703628649</v>
+        <v>48058.25703628623</v>
       </c>
       <c r="I6" t="n">
-        <v>48058.25703628609</v>
+        <v>48058.25703628626</v>
       </c>
       <c r="J6" t="n">
-        <v>48058.25703628603</v>
+        <v>48058.25703628612</v>
       </c>
       <c r="K6" t="n">
-        <v>30153.9532332719</v>
+        <v>30153.95323327195</v>
       </c>
       <c r="L6" t="n">
-        <v>-1936.100713271604</v>
+        <v>-1936.10071327175</v>
       </c>
       <c r="M6" t="n">
-        <v>-117467.1966007435</v>
+        <v>-117467.196600743</v>
       </c>
       <c r="N6" t="n">
-        <v>22394.59164716251</v>
+        <v>22394.59164716277</v>
       </c>
       <c r="O6" t="n">
-        <v>17718.71604422889</v>
+        <v>17718.71604422877</v>
       </c>
       <c r="P6" t="n">
-        <v>48058.25703628622</v>
+        <v>48058.25703628619</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
+        <v>31.61020235221391</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221391</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221402</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.61020235221395</v>
       </c>
-      <c r="I2" t="n">
-        <v>31.61020235221392</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221397</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221396</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.610202352214</v>
-      </c>
       <c r="M2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="N2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="O2" t="n">
+        <v>31.61020235221405</v>
+      </c>
+      <c r="P2" t="n">
         <v>31.61020235221395</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221389</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="P2" t="n">
-        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>396.8599432675681</v>
       </c>
       <c r="D3" t="n">
-        <v>522.6210000852658</v>
+        <v>522.6210000852668</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1175.280883976321</v>
+        <v>1175.28088397632</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26790,16 +26790,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>69.56693840343071</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="D4" t="n">
-        <v>167.1847749435941</v>
+        <v>167.184774943595</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>936.1823304757787</v>
+        <v>936.1823304757779</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26814,7 +26814,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="K4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="L4" t="n">
         <v>1062.255112188953</v>
@@ -26823,10 +26823,10 @@
         <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
+        <v>1062.255112188953</v>
+      </c>
+      <c r="O4" t="n">
         <v>1062.255112188952</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1062.255112188953</v>
       </c>
       <c r="P4" t="n">
         <v>1062.255112188953</v>
@@ -26920,22 +26920,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>100.1876019552428</v>
       </c>
       <c r="D3" t="n">
-        <v>125.7610568176977</v>
+        <v>125.7610568176987</v>
       </c>
       <c r="E3" t="n">
-        <v>567.1557005080325</v>
+        <v>567.1557005080315</v>
       </c>
       <c r="F3" t="n">
-        <v>85.50418338302256</v>
+        <v>85.50418338302211</v>
       </c>
       <c r="G3" t="n">
-        <v>102.8789866438021</v>
+        <v>102.8789866438024</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>69.56693840343071</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="D4" t="n">
-        <v>97.6178365401634</v>
+        <v>97.61783654016426</v>
       </c>
       <c r="E4" t="n">
-        <v>664.2166804586985</v>
+        <v>664.2166804586977</v>
       </c>
       <c r="F4" t="n">
-        <v>104.7808750734861</v>
+        <v>104.7808750734852</v>
       </c>
       <c r="G4" t="n">
-        <v>126.0727817131741</v>
+        <v>126.0727817131749</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>69.56693840343071</v>
+        <v>69.56693840343027</v>
       </c>
       <c r="L4" t="n">
-        <v>97.61783654016362</v>
+        <v>97.61783654016472</v>
       </c>
       <c r="M4" t="n">
-        <v>664.2166804586985</v>
+        <v>664.2166804586977</v>
       </c>
       <c r="N4" t="n">
-        <v>104.7808750734856</v>
+        <v>104.7808750734852</v>
       </c>
       <c r="O4" t="n">
-        <v>126.0727817131745</v>
+        <v>126.0727817131744</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27258,19 +27258,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>69.56693840343071</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="L4" t="n">
-        <v>97.6178365401634</v>
+        <v>97.61783654016426</v>
       </c>
       <c r="M4" t="n">
-        <v>664.2166804586985</v>
+        <v>664.2166804586977</v>
       </c>
       <c r="N4" t="n">
-        <v>104.7808750734861</v>
+        <v>104.7808750734852</v>
       </c>
       <c r="O4" t="n">
-        <v>126.0727817131741</v>
+        <v>126.0727817131749</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>295.7059533675769</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>337.3091073382807</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>344.1403822543473</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>49.6510137751944</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>172.6645079492214</v>
+        <v>103.0975695457907</v>
       </c>
       <c r="T5" t="n">
-        <v>154.8373529253091</v>
+        <v>155.5047946965622</v>
       </c>
       <c r="U5" t="n">
         <v>251.2180195592479</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>279.6740303139823</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96.96624524643663</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>77.87812716120804</v>
+        <v>123.7684130124857</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>83.79465304764209</v>
+        <v>75.50227398995315</v>
       </c>
       <c r="G6" t="n">
-        <v>136.4898938890125</v>
+        <v>66.92295548558174</v>
       </c>
       <c r="H6" t="n">
         <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>60.0065332792414</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>47.15831191777807</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>86.26055477834909</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T6" t="n">
         <v>196.7240278659264</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.2650417785066</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>75.85410961950053</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2753302804353</v>
+        <v>97.70839187700454</v>
       </c>
       <c r="H7" t="n">
         <v>155.8644016137399</v>
       </c>
       <c r="I7" t="n">
-        <v>64.36201697744862</v>
+        <v>133.9289553808793</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.2361918182916</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>145.11520646895</v>
+        <v>83.27269083848157</v>
       </c>
       <c r="S7" t="n">
         <v>211.5447863772357</v>
@@ -27828,7 +27828,7 @@
         <v>224.8878160949084</v>
       </c>
       <c r="U7" t="n">
-        <v>267.7682249069059</v>
+        <v>216.7130555488043</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>228.8964331134373</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>246.0169736264737</v>
       </c>
       <c r="H8" t="n">
-        <v>150.7732741385118</v>
+        <v>317.9580490821059</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>161.1437840005448</v>
       </c>
       <c r="T8" t="n">
         <v>213.8987704571032</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1775737922312</v>
+        <v>83.9927988486362</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>167.5575638842889</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>5.523724044721632</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,16 +27941,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>128.2740290165521</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>101.3787325177441</v>
+        <v>101.378732517744</v>
       </c>
       <c r="I9" t="n">
-        <v>50.69309652434586</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>150.8029830343934</v>
       </c>
       <c r="T9" t="n">
         <v>195.6337032318182</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>38.58821025988249</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>88.77762589042217</v>
       </c>
     </row>
     <row r="10">
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.0485480468296</v>
@@ -28029,7 +28029,7 @@
         <v>153.8481013913184</v>
       </c>
       <c r="I10" t="n">
-        <v>127.1089951193557</v>
+        <v>127.1089951193556</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>134.9182525833706</v>
       </c>
       <c r="S10" t="n">
-        <v>40.4078155988953</v>
+        <v>207.5925905424894</v>
       </c>
       <c r="T10" t="n">
-        <v>56.73406251681732</v>
+        <v>223.9188374604114</v>
       </c>
       <c r="U10" t="n">
-        <v>140.7203105049891</v>
+        <v>119.0828490686252</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>84.95286838023301</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>83.54013528442226</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221361</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221622</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221065</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.100988945066394</v>
+        <v>2.100988945066398</v>
       </c>
       <c r="H8" t="n">
-        <v>21.51675303366121</v>
+        <v>21.51675303366125</v>
       </c>
       <c r="I8" t="n">
-        <v>80.99837630467222</v>
+        <v>80.99837630467238</v>
       </c>
       <c r="J8" t="n">
-        <v>178.318810476329</v>
+        <v>178.3188104763293</v>
       </c>
       <c r="K8" t="n">
-        <v>267.2536725209895</v>
+        <v>267.25367252099</v>
       </c>
       <c r="L8" t="n">
-        <v>331.5518129485652</v>
+        <v>331.5518129485658</v>
       </c>
       <c r="M8" t="n">
-        <v>368.9152751003896</v>
+        <v>368.9152751003904</v>
       </c>
       <c r="N8" t="n">
-        <v>374.8847099405596</v>
+        <v>374.8847099405603</v>
       </c>
       <c r="O8" t="n">
-        <v>353.9930011180556</v>
+        <v>353.9930011180563</v>
       </c>
       <c r="P8" t="n">
-        <v>302.1248365367289</v>
+        <v>302.1248365367296</v>
       </c>
       <c r="Q8" t="n">
-        <v>226.8831699415387</v>
+        <v>226.8831699415391</v>
       </c>
       <c r="R8" t="n">
-        <v>131.976246820527</v>
+        <v>131.9762468205272</v>
       </c>
       <c r="S8" t="n">
-        <v>47.87628558570049</v>
+        <v>47.87628558570059</v>
       </c>
       <c r="T8" t="n">
-        <v>9.197079107028143</v>
+        <v>9.197079107028161</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1680791156053114</v>
+        <v>0.1680791156053118</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.124128188862647</v>
+        <v>1.124128188862649</v>
       </c>
       <c r="H9" t="n">
-        <v>10.85671171875241</v>
+        <v>10.85671171875243</v>
       </c>
       <c r="I9" t="n">
-        <v>38.70353632706922</v>
+        <v>38.70353632706929</v>
       </c>
       <c r="J9" t="n">
-        <v>106.2054619135539</v>
+        <v>106.2054619135541</v>
       </c>
       <c r="K9" t="n">
-        <v>181.5220505673512</v>
+        <v>181.5220505673516</v>
       </c>
       <c r="L9" t="n">
-        <v>244.0787982001989</v>
+        <v>244.0787982001994</v>
       </c>
       <c r="M9" t="n">
-        <v>284.8284450464698</v>
+        <v>284.8284450464704</v>
       </c>
       <c r="N9" t="n">
-        <v>292.3670064533601</v>
+        <v>292.3670064533607</v>
       </c>
       <c r="O9" t="n">
-        <v>267.4586923738246</v>
+        <v>267.4586923738252</v>
       </c>
       <c r="P9" t="n">
-        <v>214.6591802048331</v>
+        <v>214.6591802048335</v>
       </c>
       <c r="Q9" t="n">
-        <v>143.4939772309583</v>
+        <v>143.4939772309586</v>
       </c>
       <c r="R9" t="n">
-        <v>69.7945554453493</v>
+        <v>69.79455544534943</v>
       </c>
       <c r="S9" t="n">
-        <v>20.88018806944433</v>
+        <v>20.88018806944437</v>
       </c>
       <c r="T9" t="n">
-        <v>4.531025463003387</v>
+        <v>4.531025463003396</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07395580189885839</v>
+        <v>0.07395580189885854</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9424313116291677</v>
+        <v>0.9424313116291696</v>
       </c>
       <c r="H10" t="n">
-        <v>8.379071116121152</v>
+        <v>8.379071116121168</v>
       </c>
       <c r="I10" t="n">
-        <v>28.34147980790262</v>
+        <v>28.34147980790267</v>
       </c>
       <c r="J10" t="n">
-        <v>66.62989373218215</v>
+        <v>66.62989373218228</v>
       </c>
       <c r="K10" t="n">
-        <v>109.4933832965524</v>
+        <v>109.4933832965526</v>
       </c>
       <c r="L10" t="n">
-        <v>140.1138333671219</v>
+        <v>140.1138333671222</v>
       </c>
       <c r="M10" t="n">
-        <v>147.7303918765612</v>
+        <v>147.7303918765615</v>
       </c>
       <c r="N10" t="n">
-        <v>144.2176933513981</v>
+        <v>144.2176933513984</v>
       </c>
       <c r="O10" t="n">
-        <v>133.2083821200937</v>
+        <v>133.2083821200939</v>
       </c>
       <c r="P10" t="n">
-        <v>113.9827833628586</v>
+        <v>113.9827833628588</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.91577101287513</v>
+        <v>78.91577101287528</v>
       </c>
       <c r="R10" t="n">
-        <v>42.37513879379875</v>
+        <v>42.37513879379883</v>
       </c>
       <c r="S10" t="n">
-        <v>16.42400749448285</v>
+        <v>16.42400749448289</v>
       </c>
       <c r="T10" t="n">
-        <v>4.026751967870079</v>
+        <v>4.026751967870087</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05140534427068193</v>
+        <v>0.05140534427068204</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.724747272266613</v>
+        <v>4.724747272266611</v>
       </c>
       <c r="H14" t="n">
-        <v>48.38731800210046</v>
+        <v>48.38731800210044</v>
       </c>
       <c r="I14" t="n">
-        <v>182.1508192140588</v>
+        <v>182.1508192140587</v>
       </c>
       <c r="J14" t="n">
-        <v>401.0070187995388</v>
+        <v>401.0070187995386</v>
       </c>
       <c r="K14" t="n">
-        <v>601.0055708345847</v>
+        <v>601.0055708345844</v>
       </c>
       <c r="L14" t="n">
-        <v>745.6005551682142</v>
+        <v>745.6005551682139</v>
       </c>
       <c r="M14" t="n">
-        <v>829.6242794713855</v>
+        <v>829.6242794713852</v>
       </c>
       <c r="N14" t="n">
-        <v>843.0484676587131</v>
+        <v>843.0484676587128</v>
       </c>
       <c r="O14" t="n">
-        <v>796.0667619701119</v>
+        <v>796.0667619701115</v>
       </c>
       <c r="P14" t="n">
-        <v>679.4245636860298</v>
+        <v>679.4245636860295</v>
       </c>
       <c r="Q14" t="n">
-        <v>510.2195519979816</v>
+        <v>510.2195519979813</v>
       </c>
       <c r="R14" t="n">
-        <v>296.7909058415179</v>
+        <v>296.7909058415178</v>
       </c>
       <c r="S14" t="n">
-        <v>107.6651784667756</v>
+        <v>107.6651784667755</v>
       </c>
       <c r="T14" t="n">
-        <v>20.68258118434711</v>
+        <v>20.6825811843471</v>
       </c>
       <c r="U14" t="n">
-        <v>0.377979781781329</v>
+        <v>0.3779797817813288</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.527962656100011</v>
+        <v>2.52796265610001</v>
       </c>
       <c r="H15" t="n">
-        <v>24.41479723128169</v>
+        <v>24.41479723128168</v>
       </c>
       <c r="I15" t="n">
-        <v>87.03731074730302</v>
+        <v>87.03731074730298</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>238.8370332239049</v>
       </c>
       <c r="K15" t="n">
-        <v>406.2656794582578</v>
+        <v>408.2105311826056</v>
       </c>
       <c r="L15" t="n">
-        <v>548.8894354834696</v>
+        <v>548.8894354834694</v>
       </c>
       <c r="M15" t="n">
-        <v>640.5280817670948</v>
+        <v>640.5280817670946</v>
       </c>
       <c r="N15" t="n">
-        <v>657.4809541406779</v>
+        <v>543.5366958590924</v>
       </c>
       <c r="O15" t="n">
-        <v>601.466623708146</v>
+        <v>601.4666237081458</v>
       </c>
       <c r="P15" t="n">
-        <v>482.72999176001</v>
+        <v>482.7299917600099</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.95579758150675</v>
+        <v>46.95579758150674</v>
       </c>
       <c r="T15" t="n">
         <v>10.18946351296451</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1663133326381587</v>
+        <v>0.1663133326381586</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.119358971104841</v>
+        <v>2.11935897110484</v>
       </c>
       <c r="H16" t="n">
-        <v>18.84302794309578</v>
+        <v>18.84302794309577</v>
       </c>
       <c r="I16" t="n">
-        <v>63.73490433104377</v>
+        <v>63.73490433104375</v>
       </c>
       <c r="J16" t="n">
         <v>149.8386792571122</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2309786429078</v>
+        <v>246.2309786429077</v>
       </c>
       <c r="L16" t="n">
-        <v>315.0908783040779</v>
+        <v>315.0908783040778</v>
       </c>
       <c r="M16" t="n">
-        <v>332.2191521705524</v>
+        <v>332.2191521705523</v>
       </c>
       <c r="N16" t="n">
-        <v>324.3197232782528</v>
+        <v>324.3197232782527</v>
       </c>
       <c r="O16" t="n">
-        <v>299.5617571158007</v>
+        <v>299.5617571158006</v>
       </c>
       <c r="P16" t="n">
-        <v>256.3268341052617</v>
+        <v>256.3268341052616</v>
       </c>
       <c r="Q16" t="n">
-        <v>177.4674134804245</v>
+        <v>177.4674134804244</v>
       </c>
       <c r="R16" t="n">
-        <v>95.29408610076854</v>
+        <v>95.2940861007685</v>
       </c>
       <c r="S16" t="n">
-        <v>36.93464679643616</v>
+        <v>36.93464679643615</v>
       </c>
       <c r="T16" t="n">
-        <v>9.055442876538862</v>
+        <v>9.055442876538859</v>
       </c>
       <c r="U16" t="n">
         <v>0.1156013984239005</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32266,7 +32266,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>650.6667329954519</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,10 +32391,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32406,22 +32406,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32543,37 +32543,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>357.5145194463146</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838146</v>
@@ -32634,31 +32634,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32798,10 +32798,10 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>663.5877533333045</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33023,13 +33023,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
         <v>696.5971294879669</v>
@@ -33038,16 +33038,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P27" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33260,13 +33260,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
         <v>696.5971294879669</v>
@@ -33275,16 +33275,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33497,13 +33497,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
         <v>696.5971294879669</v>
@@ -33512,16 +33512,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33734,13 +33734,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
         <v>696.5971294879669</v>
@@ -33749,16 +33749,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P36" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33971,13 +33971,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
         <v>696.5971294879669</v>
@@ -33986,16 +33986,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34132,7 +34132,7 @@
         <v>436.1094324383705</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171643</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L41" t="n">
         <v>810.867191086975</v>
@@ -34208,13 +34208,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
@@ -34223,16 +34223,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34445,13 +34445,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>208.297560928827</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879669</v>
@@ -34463,13 +34463,13 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>69.56693840343071</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="K5" t="n">
-        <v>46.11995663863861</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16.00233074738668</v>
+        <v>62.12228738602534</v>
       </c>
       <c r="M5" t="n">
         <v>49.79500702712474</v>
@@ -35021,10 +35021,10 @@
         <v>46.79044561126696</v>
       </c>
       <c r="M6" t="n">
-        <v>69.56693840343071</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="N6" t="n">
-        <v>69.56693840343071</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="O6" t="n">
         <v>60.50244746532695</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>60.87591923902728</v>
       </c>
       <c r="L7" t="n">
-        <v>69.56693840343071</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>69.56693840343071</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="N7" t="n">
-        <v>66.7561530133931</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="P7" t="n">
-        <v>69.56693840343071</v>
+        <v>5.880233774365821</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>35.63014115602524</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.16382147600893</v>
+        <v>47.16382147600945</v>
       </c>
       <c r="L8" t="n">
-        <v>95.78539797857792</v>
+        <v>131.4155391346029</v>
       </c>
       <c r="M8" t="n">
-        <v>138.5690418731169</v>
+        <v>138.5690418731176</v>
       </c>
       <c r="N8" t="n">
-        <v>145.4716463439686</v>
+        <v>145.4716463439694</v>
       </c>
       <c r="O8" t="n">
-        <v>123.8947896963689</v>
+        <v>123.8947896963695</v>
       </c>
       <c r="P8" t="n">
-        <v>70.89184078145939</v>
+        <v>70.89184078146002</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.577480067089169</v>
+        <v>4.577480067089624</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>43.68061159299225</v>
+        <v>43.68061159299262</v>
       </c>
       <c r="L9" t="n">
-        <v>105.5244184203247</v>
+        <v>105.5244184203252</v>
       </c>
       <c r="M9" t="n">
-        <v>142.6944111244515</v>
+        <v>142.6944111244521</v>
       </c>
       <c r="N9" t="n">
-        <v>161.0252943700268</v>
+        <v>161.0252943700274</v>
       </c>
       <c r="O9" t="n">
-        <v>124.8624479293802</v>
+        <v>124.8624479293807</v>
       </c>
       <c r="P9" t="n">
-        <v>80.68477279050282</v>
+        <v>80.68477279050325</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.512203144936763</v>
+        <v>3.512203144937047</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>87.22389147066973</v>
       </c>
       <c r="L10" t="n">
-        <v>167.1847749435941</v>
+        <v>167.184774943595</v>
       </c>
       <c r="M10" t="n">
-        <v>58.55975682354142</v>
+        <v>8.804607928956472</v>
       </c>
       <c r="N10" t="n">
-        <v>167.1847749435941</v>
+        <v>129.7160323675115</v>
       </c>
       <c r="O10" t="n">
-        <v>157.7935100341334</v>
+        <v>157.7935100341336</v>
       </c>
       <c r="P10" t="n">
-        <v>111.2613426277521</v>
+        <v>111.2613426277523</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.9611142728525</v>
+        <v>219.9611142728523</v>
       </c>
       <c r="K14" t="n">
-        <v>380.9157197896041</v>
+        <v>380.9157197896039</v>
       </c>
       <c r="L14" t="n">
-        <v>509.834140198227</v>
+        <v>509.8341401982266</v>
       </c>
       <c r="M14" t="n">
-        <v>599.2780462441128</v>
+        <v>599.2780462441125</v>
       </c>
       <c r="N14" t="n">
-        <v>613.6354040621222</v>
+        <v>613.6354040621218</v>
       </c>
       <c r="O14" t="n">
-        <v>565.9685505484251</v>
+        <v>565.9685505484248</v>
       </c>
       <c r="P14" t="n">
-        <v>448.1915679307603</v>
+        <v>448.19156793076</v>
       </c>
       <c r="Q14" t="n">
-        <v>287.9138621235321</v>
+        <v>287.9138621235319</v>
       </c>
       <c r="R14" t="n">
-        <v>81.20536802738576</v>
+        <v>81.20536802738565</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>111.9994065572382</v>
       </c>
       <c r="K15" t="n">
-        <v>268.4242404838988</v>
+        <v>270.3690922082466</v>
       </c>
       <c r="L15" t="n">
-        <v>410.3350557035954</v>
+        <v>410.3350557035952</v>
       </c>
       <c r="M15" t="n">
-        <v>498.3940478450765</v>
+        <v>498.3940478450763</v>
       </c>
       <c r="N15" t="n">
-        <v>526.1392420573446</v>
+        <v>412.1949837757592</v>
       </c>
       <c r="O15" t="n">
-        <v>458.8703792637016</v>
+        <v>458.8703792637014</v>
       </c>
       <c r="P15" t="n">
-        <v>348.7555843456798</v>
+        <v>348.7555843456796</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.47949914043946</v>
+        <v>56.4794991404394</v>
       </c>
       <c r="K16" t="n">
-        <v>223.9614868170249</v>
+        <v>223.9614868170248</v>
       </c>
       <c r="L16" t="n">
-        <v>342.680903564394</v>
+        <v>342.6809035643939</v>
       </c>
       <c r="M16" t="n">
-        <v>371.803029132393</v>
+        <v>371.8030291323929</v>
       </c>
       <c r="N16" t="n">
-        <v>368.4518956574814</v>
+        <v>368.4518956574813</v>
       </c>
       <c r="O16" t="n">
-        <v>324.1468850298403</v>
+        <v>324.1468850298402</v>
       </c>
       <c r="P16" t="n">
-        <v>253.6053933701552</v>
+        <v>253.6053933701551</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.30537022873007</v>
+        <v>91.30537022872998</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>508.0704885510074</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,16 +36042,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908712</v>
@@ -36121,28 +36121,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>218.9601396664404</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133838</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O22" t="n">
         <v>381.9794231908712</v>
@@ -36446,10 +36446,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>532.2460412499712</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36525,13 +36525,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q25" t="n">
         <v>138.4502995641581</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116839</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K26" t="n">
         <v>433.5251384721831</v>
@@ -36616,7 +36616,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
@@ -36686,16 +36686,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817349</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116831</v>
       </c>
       <c r="K29" t="n">
         <v>433.5251384721831</v>
@@ -36853,7 +36853,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
@@ -36923,16 +36923,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K31" t="n">
         <v>277.1256801414978</v>
@@ -36996,19 +36996,19 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
@@ -37160,16 +37160,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
         <v>277.1256801414978</v>
@@ -37233,13 +37233,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
@@ -37327,7 +37327,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R35" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
@@ -37397,16 +37397,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
         <v>401.8727935817349</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>218.9601396664397</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
@@ -37634,16 +37634,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,19 +37704,19 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
         <v>138.4502995641581</v>
@@ -37780,7 +37780,7 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721837</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L41" t="n">
         <v>575.1007761169878</v>
@@ -37795,7 +37795,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P41" t="n">
-        <v>507.665444827693</v>
+        <v>507.665444827692</v>
       </c>
       <c r="Q41" t="n">
         <v>332.5762668227516</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37871,16 +37871,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817316</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>81.45993426216026</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
@@ -38111,13 +38111,13 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
